--- a/biology/Médecine/Décrottage_de_nez/Décrottage_de_nez.xlsx
+++ b/biology/Médecine/Décrottage_de_nez/Décrottage_de_nez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9crottage_de_nez</t>
+          <t>Décrottage_de_nez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le curage de nez ou rhinotillexis est l'acte d'extraction de mucus nasal, généralement avec un doigt , qui implique éventuellement ensuite l'ingestion de la glaire ainsi recueillie (rhinotillexophagie[1] ou mucophagie[2]. Cet acte est condamné socialement dans la plupart des cultures[réf. nécessaire].
-La fréquence excessive et un besoin incontrôlable de se curer le nez est appelé rhinotillexomanie, comportement excessif qui n'est pas reconnu comme un trouble obsessionnel compulsif[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le curage de nez ou rhinotillexis est l'acte d'extraction de mucus nasal, généralement avec un doigt , qui implique éventuellement ensuite l'ingestion de la glaire ainsi recueillie (rhinotillexophagie ou mucophagie. Cet acte est condamné socialement dans la plupart des cultures[réf. nécessaire].
+La fréquence excessive et un besoin incontrôlable de se curer le nez est appelé rhinotillexomanie, comportement excessif qui n'est pas reconnu comme un trouble obsessionnel compulsif.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9crottage_de_nez</t>
+          <t>Décrottage_de_nez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Risques médicaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'environnement du nez et les sécrétions séchées que l'on en extrait contiennent de nombreux micro-organismes. Lorsqu'une personne est contagieuse, en cas de rhume ou d'un quelconque virus, il est important de bien laver les mains ou tout objet ayant servi à cette opération. Dans le cas contraire, on risque de propager ces micro-organismes sur d'autres parties du corps ou à d'autres personnes[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'environnement du nez et les sécrétions séchées que l'on en extrait contiennent de nombreux micro-organismes. Lorsqu'une personne est contagieuse, en cas de rhume ou d'un quelconque virus, il est important de bien laver les mains ou tout objet ayant servi à cette opération. Dans le cas contraire, on risque de propager ces micro-organismes sur d'autres parties du corps ou à d'autres personnes,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9crottage_de_nez</t>
+          <t>Décrottage_de_nez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Chez les animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude publiée en 2022 par 6 chercheurs dans le Journal of Zoology[6] indique que cette pratique ne se limite pas aux humains, et est aussi observée chez au moins douze espèces de primates[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude publiée en 2022 par 6 chercheurs dans le Journal of Zoology indique que cette pratique ne se limite pas aux humains, et est aussi observée chez au moins douze espèces de primates.
 </t>
         </is>
       </c>
